--- a/docs/requirements.xlsx
+++ b/docs/requirements.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAM4SF\Documents\github\adaptive-cruise-control\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1986D8AB-A93D-4B30-ADE5-878F18B4CEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94366C6D-1D7B-4434-A433-AEF0940741EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5700" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reqs" sheetId="1" r:id="rId1"/>
+    <sheet name="Reqs_BG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>Module</t>
   </si>
@@ -145,6 +146,66 @@
   </si>
   <si>
     <t>Accelerator Control</t>
+  </si>
+  <si>
+    <t>Модул</t>
+  </si>
+  <si>
+    <t>Изисквания</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Критерии за тестване</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Ниво</t>
+  </si>
+  <si>
+    <t>Опционален</t>
+  </si>
+  <si>
+    <t>Нисък</t>
+  </si>
+  <si>
+    <t>Значителен</t>
+  </si>
+  <si>
+    <t>Висок</t>
+  </si>
+  <si>
+    <t>Задължителен</t>
+  </si>
+  <si>
+    <t>Максималният изходен ток на захранването трябва да е поне 5 А на 12 V, за да функционира системата.</t>
+  </si>
+  <si>
+    <t>Системата трябва да има ключ за вкл. / изкл.</t>
+  </si>
+  <si>
+    <t>Трябва системата да е защитена от неизправности в захранването (напр. бушон).</t>
+  </si>
+  <si>
+    <t>Захранване</t>
+  </si>
+  <si>
+    <t>Разпознаване на пътни знаци (TSR; Софтуер)</t>
+  </si>
+  <si>
+    <t>TSR трябва да разпознава знаци за максимална скорост на движение и знаци за отмяна на всички ограничения.</t>
+  </si>
+  <si>
+    <t>TSR трябва да разпознава знаци за минимална скорост на движение.</t>
   </si>
 </sst>
 </file>
@@ -168,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,37 +237,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -280,6 +363,74 @@
         </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="254000" dist="190500" dir="2700000" sy="90000" algn="bl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>196215</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>211972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DAB31C-8B1A-146A-89DE-E36B30720CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11473815" y="360044"/>
+          <a:ext cx="10994272" cy="5698272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="127000" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="50800" dir="2700000" algn="tl" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -557,552 +708,552 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="4" max="9" width="8.88671875" style="4"/>
-    <col min="10" max="10" width="18.77734375" style="4" customWidth="1"/>
+    <col min="4" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="18.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="2:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="2" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="2:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="2" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="2" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="2" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="2" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="2" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="2" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:12" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -1127,24 +1278,23 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D33:J33"/>
     <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D31:J31"/>
     <mergeCell ref="D32:J32"/>
     <mergeCell ref="D21:J21"/>
     <mergeCell ref="D22:J22"/>
     <mergeCell ref="D23:J23"/>
     <mergeCell ref="D24:J24"/>
     <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
@@ -1160,11 +1310,15 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B12:C18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="D16:J16"/>
     <mergeCell ref="D17:J17"/>
@@ -1176,13 +1330,739 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="B12:C18"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA909A8-C199-4B0D-9885-40730C97B721}">
+  <dimension ref="B2:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="13.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="2:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5">
+        <v>3</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5">
+        <v>3</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="5">
+        <v>2</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5">
+        <v>4</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5">
+        <v>2</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="2:19" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5">
+        <v>3</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5">
+        <v>4</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5">
+        <v>4</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="71">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B11:C17"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B6:C10"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C21"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:C25"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:C28"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S18:S22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:L28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>